--- a/reports/excel/19-Apr-24/evolution.xlsx
+++ b/reports/excel/19-Apr-24/evolution.xlsx
@@ -8,14 +8,13 @@
   <sheets>
     <sheet name="Baccarat &amp; Sic Bo" r:id="rId3" sheetId="1"/>
     <sheet name="Roulette" r:id="rId4" sheetId="2"/>
-    <sheet name="Poker" r:id="rId5" sheetId="3"/>
-    <sheet name="Game Shows" r:id="rId6" sheetId="4"/>
+    <sheet name="Game Shows" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>Base List:</t>
   </si>
@@ -47,123 +46,120 @@
     <t>Speed Baccarat D</t>
   </si>
   <si>
+    <t>Speed Baccarat F</t>
+  </si>
+  <si>
+    <t>Speed Baccarat G</t>
+  </si>
+  <si>
+    <t>Speed Baccarat H</t>
+  </si>
+  <si>
+    <t>Speed Baccarat I</t>
+  </si>
+  <si>
+    <t>Speed Baccarat J</t>
+  </si>
+  <si>
+    <t>Speed Baccarat K</t>
+  </si>
+  <si>
+    <t>Speed Baccarat L</t>
+  </si>
+  <si>
+    <t>Speed Baccarat M</t>
+  </si>
+  <si>
+    <t>Speed Baccarat N</t>
+  </si>
+  <si>
+    <t>Speed Baccarat O</t>
+  </si>
+  <si>
+    <t>Speed Baccarat P</t>
+  </si>
+  <si>
+    <t>Speed Baccarat Q</t>
+  </si>
+  <si>
+    <t>Speed Baccarat R</t>
+  </si>
+  <si>
+    <t>Speed Baccarat S</t>
+  </si>
+  <si>
+    <t>Speed Baccarat T</t>
+  </si>
+  <si>
+    <t>Speed Baccarat U</t>
+  </si>
+  <si>
+    <t>Speed Baccarat V</t>
+  </si>
+  <si>
+    <t>Speed Baccarat W</t>
+  </si>
+  <si>
+    <t>Speed Baccarat X</t>
+  </si>
+  <si>
+    <t>No Commission Speed Baccarat A</t>
+  </si>
+  <si>
+    <t>No Commission Speed Baccarat B</t>
+  </si>
+  <si>
+    <t>No Commission Speed Baccarat C</t>
+  </si>
+  <si>
+    <t>No Commission Baccarat</t>
+  </si>
+  <si>
+    <t>Baccarat Control Squeeze</t>
+  </si>
+  <si>
     <t>Speed Baccarat E</t>
   </si>
   <si>
-    <t>Speed Baccarat F</t>
-  </si>
-  <si>
-    <t>Speed Baccarat G</t>
-  </si>
-  <si>
-    <t>Speed Baccarat H</t>
-  </si>
-  <si>
-    <t>Speed Baccarat I</t>
-  </si>
-  <si>
-    <t>Speed Baccarat J</t>
-  </si>
-  <si>
-    <t>Speed Baccarat K</t>
-  </si>
-  <si>
-    <t>Speed Baccarat L</t>
-  </si>
-  <si>
-    <t>Speed Baccarat M</t>
-  </si>
-  <si>
-    <t>Speed Baccarat N</t>
-  </si>
-  <si>
-    <t>Speed Baccarat O</t>
-  </si>
-  <si>
-    <t>Speed Baccarat P</t>
-  </si>
-  <si>
-    <t>Speed Baccarat Q</t>
-  </si>
-  <si>
-    <t>Speed Baccarat R</t>
-  </si>
-  <si>
-    <t>Speed Baccarat S</t>
-  </si>
-  <si>
-    <t>Speed Baccarat T</t>
-  </si>
-  <si>
-    <t>Speed Baccarat U</t>
-  </si>
-  <si>
-    <t>Speed Baccarat V</t>
-  </si>
-  <si>
-    <t>Speed Baccarat W</t>
-  </si>
-  <si>
-    <t>Speed Baccarat X</t>
-  </si>
-  <si>
-    <t>No Commission Speed Baccarat A</t>
-  </si>
-  <si>
-    <t>No Commission Speed Baccarat B</t>
-  </si>
-  <si>
-    <t>No Commission Speed Baccarat C</t>
-  </si>
-  <si>
-    <t>No Commission Baccarat</t>
-  </si>
-  <si>
-    <t>Baccarat Control Squeeze</t>
-  </si>
-  <si>
     <t>No Issue</t>
   </si>
   <si>
     <t>Lightning Roulette</t>
   </si>
   <si>
+    <t>Roulette</t>
+  </si>
+  <si>
+    <t>Immersive Roulette</t>
+  </si>
+  <si>
+    <t>Auto-Roulette</t>
+  </si>
+  <si>
+    <t>Super Speed Roulette</t>
+  </si>
+  <si>
+    <t>Speed Roulette</t>
+  </si>
+  <si>
+    <t>VIP Roulette</t>
+  </si>
+  <si>
+    <t>Speed Auto Roulette</t>
+  </si>
+  <si>
+    <t>American Roulette</t>
+  </si>
+  <si>
+    <t>Auto-Roulette VIP</t>
+  </si>
+  <si>
+    <t>Auto-Roulette La Partage</t>
+  </si>
+  <si>
     <t>XXXtreme Lightning Roulette</t>
   </si>
   <si>
-    <t>Roulette</t>
-  </si>
-  <si>
-    <t>Immersive Roulette</t>
-  </si>
-  <si>
-    <t>Auto-Roulette</t>
-  </si>
-  <si>
-    <t>Super Speed Roulette</t>
-  </si>
-  <si>
-    <t>Speed Roulette</t>
-  </si>
-  <si>
-    <t>VIP Roulette</t>
-  </si>
-  <si>
-    <t>Speed Auto Roulette</t>
-  </si>
-  <si>
-    <t>American Roulette</t>
-  </si>
-  <si>
-    <t>Auto-Roulette VIP</t>
-  </si>
-  <si>
-    <t>Auto-Roulette La Partage</t>
-  </si>
-  <si>
-    <t>Side Bet City</t>
-  </si>
-  <si>
     <t>Crazy Time</t>
   </si>
   <si>
@@ -173,10 +169,10 @@
     <t>Dream Catcher</t>
   </si>
   <si>
+    <t>Crazy Time A</t>
+  </si>
+  <si>
     <t>Cash or Crash</t>
-  </si>
-  <si>
-    <t>Crazy Time A</t>
   </si>
 </sst>
 </file>
@@ -229,14 +225,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="27.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.84375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.65625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="15.88671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -256,7 +252,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>35</v>
@@ -410,11 +406,6 @@
     <row r="32">
       <c r="A32" t="s" s="0">
         <v>33</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="0">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -424,7 +415,97 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="21.13671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.03125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="15.88671875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -448,145 +529,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="10.9765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.84375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="15.88671875" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="24.03125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.84375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="15.88671875" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>35</v>
@@ -599,27 +545,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
